--- a/학습자료/오답노트/오답노트_무한반복_연표_연표_한국사_제6공화국~노무현.xlsx
+++ b/학습자료/오답노트/오답노트_무한반복_연표_연표_한국사_제6공화국~노무현.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,17 +859,332 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5공 청문회</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>615 남북 공동 선언</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>남북 고위급 회담 개최</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>남북 기본 합의서 채택</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>한민족 공동체 통일 방안</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>외환위기 극복</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>98</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>김영삼 제14대 대통령 당선</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>제2차 남북 정상회담 개최</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>금융 실명제 도입</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>92</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>104 남북 공동 선언</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>남북 고위급 회담 개최</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>제2차 연평해전</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>99</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>민족 공동체 통일 방안 발표</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>한반도 에너지 개발 기구 설치</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>91</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>개성 공단 조성</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>98</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>우루과이 라운드 타결</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20221201</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>금융 실명제 도입</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>20221201</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>09</t>
         </is>
